--- a/ITEST/itest.WebService/openl-repository/EPBDS-10026/EPBDS-10026/module1.xlsx
+++ b/ITEST/itest.WebService/openl-repository/EPBDS-10026/EPBDS-10026/module1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenL\ITEST\itest.WebService\openl-repository\deployment3\simple3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\ITEST\itest.WebService\openl-repository\EPBDS-10026\EPBDS-10026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F47EA61C-5B25-4715-ACE5-C380ABE7FEB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C77AE2-EACF-42AA-AF4A-0CD39ADB283B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6110" yWindow="2130" windowWidth="24340" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -20,14 +20,6 @@
     <sheet name="mysprs2" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -406,9 +398,6 @@
     <t>= spr(new Double[]{})</t>
   </si>
   <si>
-    <t>detailedPlainModel</t>
-  </si>
-  <si>
     <t>= false ? spr(1) : null</t>
   </si>
   <si>
@@ -425,6 +414,9 @@
   </si>
   <si>
     <t>Spreadsheet Object[] arrObjSpreadsheetResult()</t>
+  </si>
+  <si>
+    <t>tableStructureDetails</t>
   </si>
 </sst>
 </file>
@@ -480,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -496,9 +488,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -536,7 +528,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -642,7 +634,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -818,28 +810,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -847,18 +839,18 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -868,7 +860,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>2</v>
@@ -878,7 +870,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -888,7 +880,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -898,7 +890,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -906,7 +898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -914,7 +906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
@@ -922,7 +914,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -930,7 +922,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
@@ -938,7 +930,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -946,7 +938,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
@@ -954,7 +946,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
@@ -963,7 +955,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -972,7 +964,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
@@ -980,7 +972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>28</v>
       </c>
@@ -988,7 +980,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
@@ -997,7 +989,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>62</v>
       </c>
@@ -1005,7 +997,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
@@ -1013,7 +1005,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>64</v>
       </c>
@@ -1021,7 +1013,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>76</v>
       </c>
@@ -1029,7 +1021,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>117</v>
       </c>
@@ -1037,7 +1029,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>119</v>
       </c>
@@ -1045,7 +1037,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>121</v>
       </c>
@@ -1053,7 +1045,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
         <v>109</v>
@@ -1065,7 +1057,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1073,7 +1065,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1081,7 +1073,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>33</v>
@@ -1091,7 +1083,7 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>35</v>
@@ -1145,7 +1137,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>34</v>
@@ -1199,7 +1191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>36</v>
@@ -1253,7 +1245,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1261,7 +1253,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1269,13 +1261,13 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>37</v>
       </c>
@@ -1291,7 +1283,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>2</v>
       </c>
@@ -1299,7 +1291,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>3</v>
       </c>
@@ -1307,7 +1299,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>13</v>
       </c>
@@ -1315,7 +1307,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>14</v>
       </c>
@@ -1323,7 +1315,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>15</v>
       </c>
@@ -1331,7 +1323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,7 +1331,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>18</v>
       </c>
@@ -1347,7 +1339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>19</v>
       </c>
@@ -1355,7 +1347,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>20</v>
       </c>
@@ -1363,7 +1355,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
@@ -1371,7 +1363,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>56</v>
       </c>
@@ -1379,7 +1371,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>23</v>
       </c>
@@ -1387,7 +1379,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>25</v>
       </c>
@@ -1395,7 +1387,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>28</v>
       </c>
@@ -1403,7 +1395,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>61</v>
       </c>
@@ -1411,7 +1403,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>62</v>
       </c>
@@ -1419,7 +1411,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>63</v>
       </c>
@@ -1427,7 +1419,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>64</v>
       </c>
@@ -1448,9 +1440,9 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1458,7 +1450,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1466,7 +1458,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1476,7 +1468,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1488,7 +1480,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -1500,7 +1492,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1512,7 +1504,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1524,7 +1516,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1536,7 +1528,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -1548,7 +1540,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -1560,7 +1552,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1568,7 +1560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1576,7 +1568,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1584,7 +1576,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -1592,7 +1584,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11" t="s">
         <v>21</v>
@@ -1602,7 +1594,7 @@
       </c>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11" t="s">
         <v>23</v>
@@ -1612,7 +1604,7 @@
       </c>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11" t="s">
         <v>25</v>
@@ -1622,7 +1614,7 @@
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11" t="s">
         <v>28</v>
@@ -1632,7 +1624,7 @@
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11" t="s">
         <v>61</v>
@@ -1642,7 +1634,7 @@
       </c>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11" t="s">
         <v>62</v>
@@ -1652,7 +1644,7 @@
       </c>
       <c r="D20" s="11"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11" t="s">
         <v>63</v>
@@ -1662,7 +1654,7 @@
       </c>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11" t="s">
         <v>64</v>
@@ -1672,7 +1664,7 @@
       </c>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
         <v>76</v>
@@ -1682,7 +1674,7 @@
       </c>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
         <v>117</v>
@@ -1692,7 +1684,7 @@
       </c>
       <c r="D24" s="11"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
         <v>119</v>
@@ -1702,7 +1694,7 @@
       </c>
       <c r="D25" s="11"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
         <v>121</v>
@@ -1712,13 +1704,13 @@
       </c>
       <c r="D26" s="11"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -1737,15 +1729,15 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1761,23 +1753,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>0</v>
       </c>
@@ -1787,30 +1779,30 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="2"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
@@ -1819,24 +1811,24 @@
       </c>
       <c r="D18" s="11"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="D19" s="11"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>0</v>
       </c>
@@ -1846,12 +1838,12 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
@@ -1869,15 +1861,15 @@
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1893,35 +1885,35 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>84</v>
       </c>
@@ -1932,7 +1924,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1943,7 +1935,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>83</v>
       </c>
@@ -1954,7 +1946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
@@ -1965,18 +1957,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
         <v>92</v>
@@ -1984,7 +1976,7 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
         <v>89</v>
@@ -1997,7 +1989,7 @@
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
         <v>88</v>
@@ -2010,7 +2002,7 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
         <v>86</v>
@@ -2022,7 +2014,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
         <v>87</v>
@@ -2045,16 +2037,16 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -2063,7 +2055,7 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
@@ -2072,64 +2064,64 @@
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
       <c r="C9" s="11"/>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>84</v>
       </c>
@@ -2140,7 +2132,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
@@ -2151,7 +2143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>98</v>
       </c>
@@ -2162,7 +2154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>99</v>
       </c>
@@ -2173,24 +2165,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>89</v>
       </c>
@@ -2207,7 +2199,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>88</v>
       </c>
@@ -2218,7 +2210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>86</v>
       </c>
@@ -2231,7 +2223,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>87</v>
       </c>
